--- a/spreadsheets/Lee Sin.xlsx
+++ b/spreadsheets/Lee Sin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0EAB1B-FFF4-43E5-A1D1-A2A2FD791633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFC4DA5-7951-4700-BF28-B08397BC11C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3195" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Sejuani weak atm, just fight her she's just not tanky enough and her clear isn't good enough</t>
   </si>
   <si>
-    <t>Challenger every season, Ex-100TA</t>
-  </si>
-  <si>
     <t>Shaco</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/95UmvxA.png</t>
+  </si>
+  <si>
+    <t>Challenger every season, Ex-100TA.</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -859,7 +859,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>78</v>
@@ -870,32 +870,32 @@
         <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="9">
         <v>5</v>
@@ -2240,123 +2240,123 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="10">
         <v>9</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="10">
         <v>7</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="10">
         <v>4</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="9">
         <v>6</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="9">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="10">
         <v>4</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="9">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="9">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="9">
         <v>5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="9">
         <v>8</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
